--- a/技术栈.xlsx
+++ b/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12280" firstSheet="1" activeTab="8"/>
+    <workbookView windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>module</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>线程</t>
   </si>
   <si>
     <t>allure</t>
@@ -56,8 +62,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -70,6 +76,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -78,10 +107,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,14 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,19 +139,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +176,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -146,14 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -161,14 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -176,25 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,13 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,55 +229,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,127 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +443,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,174 +520,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,14 +993,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.1691176470588" customWidth="1"/>
+    <col min="2" max="2" width="17.8897058823529" customWidth="1"/>
+    <col min="3" max="3" width="12.6985294117647" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1124,22 +1155,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1184,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1175,10 +1206,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/技术栈.xlsx
+++ b/技术栈.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/技术栈.xlsx
+++ b/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840"/>
+    <workbookView windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>module</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>allure</t>
+  </si>
+  <si>
+    <t>基本使用</t>
   </si>
   <si>
     <t>appium</t>
@@ -62,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,6 +76,120 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,137 +201,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +232,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,163 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +423,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,80 +518,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -525,145 +528,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,8 +998,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1132,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1153,24 +1156,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1200,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1204,12 +1219,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/技术栈.xlsx
+++ b/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" activeTab="7"/>
+    <workbookView windowHeight="15120" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -109,11 +164,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,97 +222,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,12 +238,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -256,13 +370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,145 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,35 +426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +452,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,179 +502,168 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1199,7 +1199,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/技术栈.xlsx
+++ b/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15120" activeTab="8"/>
+    <workbookView windowHeight="15120" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd" sheetId="1" r:id="rId1"/>
@@ -999,7 +999,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1135,7 +1135,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1199,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/技术栈.xlsx
+++ b/技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15120" activeTab="7"/>
+    <workbookView windowHeight="15560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>module</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>线程</t>
+  </si>
+  <si>
+    <t>React</t>
   </si>
   <si>
     <t>allure</t>
@@ -65,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +92,89 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,39 +188,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,81 +225,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,13 +247,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,157 +331,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,16 +463,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +490,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,168 +526,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -999,7 +1002,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1037,14 +1040,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.1691176470588" customWidth="1"/>
+    <col min="2" max="2" width="17.8897058823529" customWidth="1"/>
+    <col min="3" max="3" width="12.6985294117647" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1135,7 +1160,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -1158,10 +1183,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1169,20 +1194,20 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1221,10 +1246,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
